--- a/server/api/trucking-company/templates/Southern-CA-ZipCity-db.xlsx
+++ b/server/api/trucking-company/templates/Southern-CA-ZipCity-db.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20240" yWindow="1740" windowWidth="31560" windowHeight="23340" tabRatio="500"/>
+    <workbookView xWindow="4600" yWindow="0" windowWidth="32220" windowHeight="22740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Combined" sheetId="1" r:id="rId1"/>
@@ -1488,8 +1488,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="89">
+  <cellStyleXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1584,7 +1586,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="89">
+  <cellStyles count="91">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1629,6 +1631,7 @@
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1673,6 +1676,7 @@
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2004,8 +2008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1197" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
